--- a/UserManagement/wwwroot/UserTemplate.xlsx
+++ b/UserManagement/wwwroot/UserTemplate.xlsx
@@ -162,7 +162,7 @@
     <t>ABU ROAD</t>
   </si>
   <si>
-    <t>Mohit</t>
+    <t>Pratik</t>
   </si>
   <si>
     <t>Joshi</t>
@@ -174,7 +174,7 @@
     <t>GNM</t>
   </si>
   <si>
-    <t>Mohit@cdac.com</t>
+    <t>Pratik@cdac.com</t>
   </si>
   <si>
     <t>CHO</t>
@@ -216,7 +216,7 @@
     <t>Debbe@gmail.com</t>
   </si>
   <si>
-    <t>Guneet</t>
+    <t>Kamini</t>
   </si>
   <si>
     <t>Wagh</t>
@@ -225,7 +225,7 @@
     <t>Female</t>
   </si>
   <si>
-    <t>Guneet@gmail.com</t>
+    <t>Kamini@gmail.com</t>
   </si>
   <si>
     <t>KOLKATA</t>
@@ -241,7 +241,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -296,12 +296,7 @@
       <name val="Arial"/>
     </font>
     <font>
-      <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -318,7 +313,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border/>
     <border>
       <left style="thin">
@@ -364,11 +359,24 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -428,7 +436,10 @@
     <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -437,7 +448,10 @@
     <xf borderId="4" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -873,7 +887,7 @@
         <v>42</v>
       </c>
       <c r="N3" s="18">
-        <v>9.434454873E9</v>
+        <v>9.334464979E9</v>
       </c>
       <c r="O3" s="13" t="s">
         <v>43</v>
@@ -899,10 +913,10 @@
       <c r="V3" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="W3" s="21" t="s">
+      <c r="W3" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="X3" s="22" t="s">
+      <c r="X3" s="23" t="s">
         <v>50</v>
       </c>
       <c r="Y3" s="16" t="s">
@@ -917,10 +931,10 @@
       <c r="AB3" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="AC3" s="23" t="s">
+      <c r="AC3" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="AD3" s="23" t="s">
+      <c r="AD3" s="24" t="s">
         <v>54</v>
       </c>
       <c r="AE3" s="5">
@@ -972,7 +986,7 @@
         <v>60</v>
       </c>
       <c r="N4" s="18">
-        <v>8.632362355E9</v>
+        <v>8.733463354E9</v>
       </c>
       <c r="O4" s="13" t="s">
         <v>61</v>
@@ -998,10 +1012,10 @@
       <c r="V4" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="W4" s="24" t="s">
+      <c r="W4" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="X4" s="24" t="s">
+      <c r="X4" s="26" t="s">
         <v>63</v>
       </c>
       <c r="Y4" s="16" t="s">
@@ -1016,10 +1030,10 @@
       <c r="AB4" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="AC4" s="25" t="s">
+      <c r="AC4" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="AD4" s="25" t="s">
+      <c r="AD4" s="27" t="s">
         <v>54</v>
       </c>
       <c r="AE4" s="5">
